--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1299.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1299.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.994052302410294</v>
+        <v>1.114836812019348</v>
       </c>
       <c r="B1">
-        <v>2.589843111447965</v>
+        <v>2.25190258026123</v>
       </c>
       <c r="C1">
-        <v>5.771815948759753</v>
+        <v>10.33907032012939</v>
       </c>
       <c r="D1">
-        <v>2.178117844845183</v>
+        <v>1.642699241638184</v>
       </c>
       <c r="E1">
-        <v>1.263695581933263</v>
+        <v>1.292449116706848</v>
       </c>
     </row>
   </sheetData>
